--- a/data/trans_camb/P23_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Habitat-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.68217469399512</v>
+        <v>-13.06446095721958</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.22843102826604</v>
+        <v>-14.41483679074681</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.190507735394189</v>
+        <v>-4.519859409905499</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.736896159032732</v>
+        <v>-2.679971280483577</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.570987994059577</v>
+        <v>-7.466308074404727</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.499647782890246</v>
+        <v>-7.317605800236134</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.044169457895418</v>
+        <v>-2.782515867087591</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.742272366837262</v>
+        <v>-3.718067120716669</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.524518700403288</v>
+        <v>4.429730298848623</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.37342439856204</v>
+        <v>6.12438640432902</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.3111549082800683</v>
+        <v>-0.6483240805473223</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.2505288625223522</v>
+        <v>-0.07840748705197047</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2576332579196423</v>
+        <v>-0.266498539261487</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2950196812551857</v>
+        <v>-0.2993007855333638</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2023488693321827</v>
+        <v>-0.1710483995752606</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1032470219686158</v>
+        <v>-0.1060878346967042</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2065143391770168</v>
+        <v>-0.2060197171820691</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2042121669903869</v>
+        <v>-0.2022185906775115</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.04863735700218225</v>
+        <v>-0.06063779014723295</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.08628674405661881</v>
+        <v>-0.08684618461250085</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2159224054531175</v>
+        <v>0.2071936353034533</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2991851639081949</v>
+        <v>0.2860176804304801</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.009233915356646827</v>
+        <v>-0.01968099366146748</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.007242056802395841</v>
+        <v>-0.002055011877543022</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.625747909923269</v>
+        <v>-7.294109887338314</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.36272702759208</v>
+        <v>-14.13804790191585</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8340960394538556</v>
+        <v>0.4948665005599199</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.374544929073343</v>
+        <v>-1.72182675399034</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.172205848916569</v>
+        <v>-2.005477278364501</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.379987335698492</v>
+        <v>-6.621399053466299</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.378138527058678</v>
+        <v>2.182059700499722</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.417975025193249</v>
+        <v>-4.861246351333482</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.389976953717222</v>
+        <v>8.89349031084728</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.825450088044362</v>
+        <v>6.212612066133101</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.058264359830905</v>
+        <v>4.272888311033554</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.198807566655754</v>
+        <v>-0.4979880731272735</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1517097590685909</v>
+        <v>-0.1620227231105386</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2993563639951208</v>
+        <v>-0.3113795343407019</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.0284205820630387</v>
+        <v>0.01471554542015706</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.0553182170342672</v>
+        <v>-0.06777042623202073</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06319116245984606</v>
+        <v>-0.05789119445010681</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1849797780720629</v>
+        <v>-0.1894224614800295</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.05971801163106525</v>
+        <v>0.0531712617900851</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1108429628497273</v>
+        <v>-0.1165493920290065</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3855821293421812</v>
+        <v>0.4060253512077002</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3172284523598747</v>
+        <v>0.2820524517938183</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1290742809600975</v>
+        <v>0.1385238602829401</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.006264941906411895</v>
+        <v>-0.01604226932762844</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.929784173861786</v>
+        <v>-0.9888508781015573</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.521882550714754</v>
+        <v>-1.645136168564328</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.5381015284478986</v>
+        <v>-0.2060404084005756</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.5358311343090985</v>
+        <v>-0.6589079770181108</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.696481098869805</v>
+        <v>0.9314764843229353</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3231253525952569</v>
+        <v>0.3534729645272792</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.171666858639016</v>
+        <v>9.553444938120522</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.977816861232872</v>
+        <v>8.554799598677015</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.317308673209347</v>
+        <v>9.378174583877975</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.535097931016823</v>
+        <v>8.174402924567827</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.761052885868273</v>
+        <v>7.929744076074556</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.511157812559296</v>
+        <v>7.669151283306058</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.04993850084855713</v>
+        <v>-0.02417960687850834</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.03857364617497549</v>
+        <v>-0.04231077667418864</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.02295272730156389</v>
+        <v>-0.01509616576766379</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.02223543034977891</v>
+        <v>-0.02312319201077909</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01835440956085116</v>
+        <v>0.02847701576530551</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0102965787028935</v>
+        <v>0.0113520817104519</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2549182520770553</v>
+        <v>0.2728689563253965</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2618501156602137</v>
+        <v>0.247342792820639</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3991829015580921</v>
+        <v>0.4039584460331168</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3808623153978841</v>
+        <v>0.361564443690068</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2608064563871802</v>
+        <v>0.2691652502432554</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2562247612465879</v>
+        <v>0.2656593782749723</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.936672409388727</v>
+        <v>-9.238547946579811</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-16.61502506998914</v>
+        <v>-16.84872760919665</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.42886638135374</v>
+        <v>-5.219722073239067</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.592264542422621</v>
+        <v>-8.648707148627121</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.806913305152028</v>
+        <v>-5.918911926653028</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-11.24600562447283</v>
+        <v>-11.23806197199357</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1138862390799674</v>
+        <v>-0.5024419994799608</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-7.596292162261434</v>
+        <v>-7.90869144665301</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.636305911208282</v>
+        <v>2.578463463664012</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.7986855722147589</v>
+        <v>-0.6454323689260686</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4153835010036361</v>
+        <v>0.2049452196898469</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-5.460392963317276</v>
+        <v>-5.329596406891564</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2013882504375283</v>
+        <v>-0.2038659381161836</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3675182144791626</v>
+        <v>-0.3739284756815771</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1724791824882203</v>
+        <v>-0.1668594511166035</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2721497518221809</v>
+        <v>-0.2781030413935964</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1540239396309672</v>
+        <v>-0.1568348112655681</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.304272034869799</v>
+        <v>-0.3053944275281074</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.00238348207915697</v>
+        <v>-0.0122002518477029</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1854398226820896</v>
+        <v>-0.195506692926358</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.09715234108008282</v>
+        <v>0.09505689757861002</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.02592069252500768</v>
+        <v>-0.02409210254405037</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.0122861234362524</v>
+        <v>0.00618845445478788</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1586898104905461</v>
+        <v>-0.1555843130646208</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.12058640259259</v>
+        <v>-5.081337695461355</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.613193531229392</v>
+        <v>-9.770339637869107</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.1525334017222749</v>
+        <v>-0.3186418507872746</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.425052817723302</v>
+        <v>-1.478537977259147</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.985868845086793</v>
+        <v>-1.9255358645364</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.796046429952485</v>
+        <v>-4.796612315775187</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.2117924130560807</v>
+        <v>-0.0499385925289485</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-4.779998509750367</v>
+        <v>-4.854888214244625</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.015433491771693</v>
+        <v>4.118978274967229</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.760906374559943</v>
+        <v>2.715093194772499</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.332426637044434</v>
+        <v>1.325825494086806</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.55055315163039</v>
+        <v>-1.574422924698761</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1174409452394725</v>
+        <v>-0.1155805426705771</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2190070963914128</v>
+        <v>-0.2244277330976118</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.005802645161764353</v>
+        <v>-0.01081602284843174</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.05339901965960924</v>
+        <v>-0.05615396971335959</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.05770372673995874</v>
+        <v>-0.05626359254858772</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1392919903032169</v>
+        <v>-0.1390707087133861</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.004083458010875045</v>
+        <v>-0.0004734268919717833</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1153208871750345</v>
+        <v>-0.1178759615544743</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1635116726365666</v>
+        <v>0.168458911547656</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1109107463830244</v>
+        <v>0.1110525759719139</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.0398489306604507</v>
+        <v>0.04017462754279869</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.04709289305603823</v>
+        <v>-0.0481678203443866</v>
       </c>
     </row>
     <row r="34">
